--- a/mm-site/assets/RailsToTrails_National Count Data_week.xlsx
+++ b/mm-site/assets/RailsToTrails_National Count Data_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\dev\dash\mm-site\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFDE7AC-F465-411B-AC73-7206670F41BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636D7A98-256C-46B0-B416-ED7C82AC59F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="3570" windowWidth="18885" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Data" sheetId="7" r:id="rId1"/>
@@ -3109,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BD9D6D-B4D9-B049-AEBA-B20A31A3B0A4}">
   <dimension ref="A1:W994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -6826,8 +6826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4B3D3-D25E-4E1B-A1AF-602201E7CBA4}">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6966,7 +6966,7 @@
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>125</v>
       </c>
@@ -6975,6 +6975,10 @@
       </c>
       <c r="C17" s="61">
         <v>6322721</v>
+      </c>
+      <c r="E17">
+        <f>GETPIVOTDATA("Sum of Pedestrians (14 counters)",$A$13)/GETPIVOTDATA("Sum of Bikes (14 counters)",$A$13)</f>
+        <v>1.115982976316684</v>
       </c>
     </row>
   </sheetData>
